--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techh\eclipse-workspace\7rmartProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F999066-AD0C-44E6-AC0A-383712C7D97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B689203-5474-4484-8FB8-0D862200558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{6BDBF49B-B183-4D85-B38B-9BD0F640C81C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{6BDBF49B-B183-4D85-B38B-9BD0F640C81C}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManagePages" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageDeliveryBoy" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminUserTest" sheetId="4" r:id="rId3"/>
+    <sheet name="ManageExpenseTest" sheetId="5" r:id="rId4"/>
+    <sheet name="ManageDeliveryBoy" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>CorrectUsername</t>
   </si>
@@ -92,6 +94,60 @@
   </si>
   <si>
     <t>Manage Pages</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Admin Users</t>
+  </si>
+  <si>
+    <t>passwordToAdd</t>
+  </si>
+  <si>
+    <t>adminpwd</t>
+  </si>
+  <si>
+    <t>visibleTextOfUserType</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>visibleTextOfUserId</t>
+  </si>
+  <si>
+    <t>visibleTextOfCategory</t>
+  </si>
+  <si>
+    <t>visibleTextOfOrderId</t>
+  </si>
+  <si>
+    <t>visibleTextOfPurchaseId</t>
+  </si>
+  <si>
+    <t>visibleTextOfExpenseType</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Manage Expense</t>
+  </si>
+  <si>
+    <t>Admin1233(Admin)</t>
+  </si>
+  <si>
+    <t>FruitNew</t>
+  </si>
+  <si>
+    <t>Debit Cash</t>
   </si>
 </sst>
 </file>
@@ -524,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464D64B-447F-44CE-BA62-1144150C789F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -563,6 +619,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF804A64-DDE3-4EDD-A8D4-A951802C98A5}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DF9B83-D58D-4672-A630-07A45BDBD818}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A414C2D5-1ED2-4616-BDD6-9BC75A23F96E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
